--- a/data.xlsx
+++ b/data.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/payal.vegad@ibm.com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9C3F36-6225-EA42-B1D2-65221AEF47ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E7C7BB-7744-3648-B436-8074B2DBD9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>abc@gmail.com</t>
   </si>
@@ -97,49 +97,12 @@
   </si>
   <si>
     <t>NName2</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{"code":200,"type":"unknown","message":"2039377080500584826"}</t>
-  </si>
-  <si>
-    <t>{"code":200,"type":"unknown","message":"2039377080500584827"}</t>
-  </si>
-  <si>
-    <t>{"code":1,"type":"error","message":"User not found"}</t>
-  </si>
-  <si>
-    <t>{"code":200,"type":"unknown","message":"logged in user session:1651845233356"}</t>
-  </si>
-  <si>
-    <t>{"code":200,"type":"unknown","message":"ok"}</t>
-  </si>
-  <si>
-    <t>{"code":200,"type":"unknown","message":"2039377080500584840"}</t>
-  </si>
-  <si>
-    <t>{"code":200,"type":"unknown","message":"2039377080500584841"}</t>
-  </si>
-  <si>
-    <t>{"code":200,"type":"unknown","message":"logged in user session:1651845371700"}</t>
-  </si>
-  <si>
-    <t>{"code":200,"type":"unknown","message":"2039377080500584842"}</t>
-  </si>
-  <si>
-    <t>{"code":200,"type":"unknown","message":"2039377080500584843"}</t>
-  </si>
-  <si>
-    <t>{"code":200,"type":"unknown","message":"logged in user session:1651845374166"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -471,15 +434,15 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="M2" sqref="M2:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="19.83203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.1640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.83203125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.83203125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -545,23 +508,23 @@
       <c r="G2">
         <v>1234567890</v>
       </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" t="s">
-        <v>31</v>
+      <c r="H2">
+        <v>200</v>
+      </c>
+      <c r="I2">
+        <v>200</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>200</v>
+      </c>
+      <c r="L2">
+        <v>200</v>
+      </c>
+      <c r="M2">
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -586,23 +549,23 @@
       <c r="G3">
         <v>1234567890</v>
       </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
+      <c r="H3">
+        <v>200</v>
+      </c>
+      <c r="I3">
+        <v>200</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="K3">
+        <v>200</v>
+      </c>
+      <c r="L3">
+        <v>200</v>
+      </c>
+      <c r="M3">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
